--- a/ExportModule/report.xlsx
+++ b/ExportModule/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\deepReportExport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Deep-Report\ExportModule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,6 +113,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16776960-4A9E-4703-A350-577C5FFA2ACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="350520"/>
+          <a:ext cx="3848100" cy="2453640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,7 +469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -430,5 +487,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>